--- a/biology/Médecine/Max_Talmey/Max_Talmey.xlsx
+++ b/biology/Médecine/Max_Talmey/Max_Talmey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Talmey (1867-1941) fut un des professeurs d'Albert Einstein durant sa deuxième décennie. Il a également publié des travaux en médecine (ophtalmologie) et sur les langues internationales.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Quand il était étudiant à l'école médicale de Munich, Max Talmey influença beaucoup l'éducation d'Albert Einstein. Leur association dura 5 ans.
 Ils perdirent contact plusieurs années après que chacun eut quitté Munich. Talmey émigra aux États-Unis et pratiqua la médecine, principalement l'ophtalmologie, à New York.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Psyche, Medico-Legal Pub. Co., 1910
 Practical and theoretical Esperanto: a handy textbook for beginners and advanced students, Universal language publishing co., 1906
@@ -577,7 +593,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) James G. Ravin, Albert Einstein and his mentor Max Talmey, The Seventh Charles B. Snyder lecture, lien, [PDF] texte intégral</t>
         </is>
